--- a/src/output/product_data_results.xlsx
+++ b/src/output/product_data_results.xlsx
@@ -468,281 +468,155 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>001.25.791</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>22</v>
-      </c>
+          <t>900.70.061</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>stokta mevcut</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.070,54 TL</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>713,69 TL</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>999,17 TL</t>
-        </is>
-      </c>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>001.25.792</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>83</v>
-      </c>
+          <t>900.70.063</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>stokta mevcut</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.284,82 TL</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>856,55 TL</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.199,17 TL</t>
-        </is>
-      </c>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>001.25.870</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>86</v>
-      </c>
+          <t>900.70.062</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>stokta mevcut</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.115,18 TL</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.410,12 TL</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.974,17 TL</t>
-        </is>
-      </c>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>001.27.205</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
+          <t>900.70.066</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>stokta mevcut</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.026,79 TL</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>8.684,52 TL</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>12.158,33 TL</t>
-        </is>
-      </c>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>001.27.220</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
+          <t>900.70.068</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>stokta mevcut</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>15.973,21 TL</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>10.648,81 TL</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>14.908,33 TL</t>
-        </is>
-      </c>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>001.27.240</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
+          <t>900.70.382</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>stokta mevcut</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.241,07 TL</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>7.494,05 TL</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10.491,67 TL</t>
-        </is>
-      </c>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>001.27.241</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>75</v>
-      </c>
+          <t>900.70.383</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>stokta mevcut</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.711,87 TL</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.807,92 TL</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.331,08 TL</t>
-        </is>
-      </c>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>001.27.250</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
+          <t>900.70.384</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>stokta mevcut</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>33.741,07 TL</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>22.494,05 TL</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>31.491,67 TL</t>
-        </is>
-      </c>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>001.25.840</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
+          <t>900.70.386</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>stokta mevcut</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>14.544,64 TL</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>9.696,43 TL</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>13.575,00 TL</t>
-        </is>
-      </c>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>001.27.251</t>
+          <t>900.70.388</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -751,17 +625,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.794,64 TL</t>
+          <t>1.056,73 TL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.196,43 TL</t>
+          <t>704,49 TL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10.075,00 TL</t>
+          <t>915,83 TL</t>
         </is>
       </c>
     </row>

--- a/src/output/product_data_results.xlsx
+++ b/src/output/product_data_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,174 +468,94 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>900.70.061</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>900.70.391</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>900.70.063</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>900.78.217</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>900.70.062</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>900.78.417</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1238</v>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>900.70.066</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>900.70.068</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>900.70.382</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>900.70.383</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>900.70.384</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>900.70.386</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>900.70.388</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>stokta mevcut</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.056,73 TL</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>704,49 TL</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>915,83 TL</t>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.040,34 TL</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.360,22 TL</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.768,29 TL</t>
         </is>
       </c>
     </row>

--- a/src/output/product_data_results.xlsx
+++ b/src/output/product_data_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,94 +468,426 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>900.70.391</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>urun hafele.com.tr de bulunmuyor</t>
-        </is>
+          <t>903.52.718</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>42</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>urun hafele.com.tr de bulunmuyor</t>
+          <t>stokta mevcut</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>urun hafele.com.tr de bulunmuyor</t>
+          <t>315,34 TL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>urun hafele.com.tr de bulunmuyor</t>
+          <t>210,22 TL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>urun hafele.com.tr de bulunmuyor</t>
+          <t>273,29 TL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>900.78.217</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>urun hafele.com.tr de bulunmuyor</t>
-        </is>
+          <t>903.53.718</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>21</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>urun hafele.com.tr de bulunmuyor</t>
+          <t>stokta mevcut</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>urun hafele.com.tr de bulunmuyor</t>
+          <t>657,64 TL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>urun hafele.com.tr de bulunmuyor</t>
+          <t>438,43 TL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>urun hafele.com.tr de bulunmuyor</t>
+          <t>569,96 TL</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>900.78.417</t>
+          <t>903.58.055</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1238</v>
+        <v>87</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>set urun</t>
+          <t>stokta mevcut</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.040,34 TL</t>
+          <t>136,49 TL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.360,22 TL</t>
+          <t>90,99 TL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.768,29 TL</t>
+          <t>118,29 TL</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>903.58.056</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>55</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>136,49 TL</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90,99 TL</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>118,29 TL</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>903.58.064</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>903.58.057</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>66</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>383,61 TL</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>255,74 TL</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>332,46 TL</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>903.58.068</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>93</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>148,03 TL</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98,69 TL</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>128,29 TL</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>903.58.070</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>903.58.067</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>847</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>114,38 TL</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76,25 TL</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>99,13 TL</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>903.58.114</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>903.58.267</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>72,06 TL</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>48,04 TL</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>62,46 TL</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>903.58.323</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>806</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>157,64 TL</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>105,10 TL</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>136,63 TL</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>903.58.368</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>143</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>99,95 TL</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66,63 TL</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>86,63 TL</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>903.70.124</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3 ila 5 gün içinde</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>614,24 TL</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>409,49 TL</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>573,29 TL</t>
         </is>
       </c>
     </row>

--- a/src/output/product_data_results.xlsx
+++ b/src/output/product_data_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,20 +451,10 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>price_info</t>
+          <t>exists</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>details</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>exists</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>errors</t>
         </is>
@@ -483,15 +473,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'kdv_haric_tavsiye_edilen_perakende_fiyat': None, 'kdv_haric_net_fiyat': 'N/A', 'kdv_haric_satis_fiyati': None, 'stok_durumu': 'Stok bilgisi bulunamadi', 'stock_amount': None}</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>{'html_fetch': 'Message: \nStacktrace:\n#0 0xaaaadb767d44 &lt;unknown&gt;\n#1 0xaaaadb48e374 &lt;unknown&gt;\n#2 0xaaaadb4cb4e0 &lt;unknown&gt;\n#3 0xaaaadb508400 &lt;unknown&gt;\n#4 0xaaaadb4c14a4 &lt;unknown&gt;\n#5 0xaaaadb4c20e0 &lt;unknown&gt;\n#6 0xaaaadb735ac0 &lt;unknown&gt;\n#7 0xaaaadb738a64 &lt;unknown&gt;\n#8 0xaaaadb738630 &lt;unknown&gt;\n#9 0xaaaadb726d6c &lt;unknown&gt;\n#10 0xaaaadb739128 &lt;unknown&gt;\n#11 0xaaaadb711010 &lt;unknown&gt;\n#12 0xaaaadb758550 &lt;unknown&gt;\n#13 0xaaaadb758758 &lt;unknown&gt;\n#14 0xaaaadb767250 &lt;unknown&gt;\n#15 0xffff90ecee58 &lt;unknown&gt;\n#16 0xffff90f37f9c &lt;unknown&gt;\n'}</t>
+          <t>{'kdv_haric_tavsiye_edilen_perakende_fiyat': '74,54 TL', 'kdv_haric_net_fiyat': '53,24 TL', 'kdv_haric_satis_fiyati': '106,49 TL', 'stok_durumu': 'stokta mevcut', 'stock_amount': 20}</t>
+        </is>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>{}</t>
         </is>
       </c>
     </row>

--- a/src/output/product_data_results.xlsx
+++ b/src/output/product_data_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,27 +436,32 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>code</t>
+          <t>stock_code</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>kdv_haric_tavsiye_edilen_perakende_fiyat</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>metadata</t>
+          <t>kdv_haric_net_fiyat</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>exists</t>
+          <t>kdv_haric_satis_fiyati</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>errors</t>
+          <t>stok_durumu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>stock_amount</t>
         </is>
       </c>
     </row>
@@ -468,21 +473,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.hafele.com.tr/prod-live/web/WFS/Haefele-HTR-Site/tr_TR/-/TRY/ViewProduct-GetPriceAndAvailabilityInformationPDS?SKU=80330500&amp;ProductQuantity=20000</t>
+          <t>74,54 TL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'kdv_haric_tavsiye_edilen_perakende_fiyat': '74,54 TL', 'kdv_haric_net_fiyat': '53,24 TL', 'kdv_haric_satis_fiyati': '106,49 TL', 'stok_durumu': 'stokta mevcut', 'stock_amount': 20}</t>
-        </is>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
+          <t>53,24 TL</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>106,49 TL</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{}</t>
-        </is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/output/product_data_results.xlsx
+++ b/src/output/product_data_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,31 +468,5951 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>803.30.500</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>74,54 TL</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>53,24 TL</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>106,49 TL</t>
-        </is>
-      </c>
+          <t>403.31.004</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>stokta mevcut</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>Stok bilgisi bulunamadi</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>903.78.085</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.490,83 TL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1.064,88 TL</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.129,76 TL</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>506.00.106</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>307.416,67 TL</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fiyat talep üzerine bildirilir</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fiyat talep üzerine bildirilir</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>522.17.234</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270,79 TL</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>193,42 TL</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>386,85 TL</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>549.75.457</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>21.991,67 TL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15.708,33 TL</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.416,67 TL</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>588.22.990</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3.890,83 TL</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3.335,00 TL</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.670,00 TL</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>903.80.009</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>383,29 TL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>273,78 TL</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>547,56 TL</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>803.07.220</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5,21 TL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3,72 TL</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7,44 TL</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>634.90.181</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>88,29 TL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>63,07 TL</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>126,13 TL</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>911.02.937</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>333,29 TL</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>277,74 TL</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>555,49 TL</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>553.59.301</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>13,71 TL</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>9,79 TL</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19,58 TL</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>943.08.084</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>13.325,00 TL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>9.517,86 TL</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.035,71 TL</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>istek üzerine</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>910.52.910</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>36.491,67 TL</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>26.065,48 TL</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>52.130,95 TL</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>istek üzerine</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>019.06.962</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2,00 TL</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1,43 TL</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2,86 TL</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>237.88.625</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1.189,00 TL</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>948,69 TL</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.897,38 TL</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>580.90.052</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>827,46 TL</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>591,04 TL</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.182,08 TL</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>101.71.011</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>111,63 TL</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>13,31 TL</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>26,63 TL</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>019.05.935</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0,61 TL</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0,43 TL</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0,87 TL</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>istek üzerine</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>580.05.350</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3.949,17 TL</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2.820,83 TL</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.641,67 TL</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>943.55.071</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3.482,50 TL</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2.487,50 TL</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.975,00 TL</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>570.90.612</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>14.162,50 TL</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10.116,07 TL</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.232,14 TL</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>425.71.363</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3.974,17 TL</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2.838,69 TL</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.677,38 TL</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>istek üzerine</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>433.06.666</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>218,29 TL</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>155,92 TL</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>311,85 TL</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>981.40.149</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2.015,83 TL</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1.439,88 TL</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.879,76 TL</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>931.84.092</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>734,13 TL</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>524,38 TL</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.048,75 TL</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>287.37.740</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1.690,83 TL</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1.207,74 TL</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.415,48 TL</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>903.78.099</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1.324,17 TL</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>945,83 TL</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.891,67 TL</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>433.03.376</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>539,13 TL</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>385,09 TL</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>770,18 TL</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>916.85.713</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>67,04 TL</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>47,89 TL</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>95,77 TL</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>022.45.234</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0,50 TL</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0,36 TL</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0,71 TL</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1 ila 3 gün içinde</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>900.78.396</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2.055,79 TL</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1.535,68 TL</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.071,37 TL</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>900.92.430</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>341.24.335</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>609,13 TL</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>435,09 TL</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>870,18 TL</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>833.04.230</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>7.290,83 TL</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>5.207,74 TL</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.415,48 TL</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>420.78.043</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>6.215,83 TL</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4.439,88 TL</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.879,76 TL</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>istek üzerine</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>372.37.931</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>282.28.720</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1,83 TL</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1,31 TL</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2,62 TL</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>927.91.726</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>79,13 TL</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>56,52 TL</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>113,04 TL</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>iki ay içinde</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>547.91.700</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>940,83 TL</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>672,02 TL</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.344,05 TL</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>981.22.412</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2.490,83 TL</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1.779,17 TL</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.558,33 TL</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>110.72.250</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>104,13 TL</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>31,70 TL</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>63,40 TL</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>941.25.860</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>3.574,17 TL</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2.552,98 TL</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.105,95 TL</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1 ila 3 gün içinde</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>262.11.116</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3,46 TL</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2,47 TL</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4,94 TL</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1 ila 3 gün içinde</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>940.01.003</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>599,96 TL</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>428,54 TL</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>857,08 TL</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>10 ila 20 gün içinde</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>634.90.192</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>165,79 TL</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>118,42 TL</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>236,85 TL</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>902.52.191</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>368,29 TL</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>263,07 TL</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>526,13 TL</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>589.95.938</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>40,79 TL</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>34,96 TL</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>69,93 TL</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>631.04.632</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>593,29 TL</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>423,78 TL</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>847,56 TL</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>833.03.224</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>689,96 TL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Fiyat talep üzerine bildirilir</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Fiyat talep üzerine bildirilir</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>802.17.210</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>22,46 TL</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>16,04 TL</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>32,08 TL</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>425.71.314</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>4.315,83 TL</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>3.082,74 TL</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.165,48 TL</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>istek üzerine</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>372.33.533</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>3.429,96 TL</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>3.110,68 TL</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.221,37 TL</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>233.02.410</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1.215,83 TL</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>868,45 TL</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.736,90 TL</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>563.54.990</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>277,46 TL</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>198,18 TL</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>396,37 TL</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1 ila 3 gün içinde</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>264.42.091</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2,08 TL</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1,49 TL</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2,98 TL</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>950.45.173</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2.140,83 TL</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1.529,17 TL</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.058,33 TL</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>bir ay içinde</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>264.00.304</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>499,96 TL</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>357,11 TL</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>714,23 TL</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>istek üzerine</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>940.67.012</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>16.075,00 TL</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>11.482,14 TL</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>22.964,29 TL</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>istek üzerine</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>943.09.407</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>8.908,33 TL</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>6.363,10 TL</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>12.726,20 TL</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1 ila 3 gün içinde</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>589.80.273</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>4.107,50 TL</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Fiyat talep üzerine bildirilir</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Fiyat talep üzerine bildirilir</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>987.11.428</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1.557,50 TL</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1.112,50 TL</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.225,00 TL</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>903.78.051</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1.415,83 TL</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1.011,31 TL</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.022,62 TL</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>983.81.014</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>7.290,83 TL</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>5.207,74 TL</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>10.415,48 TL</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>916.85.672</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>688,29 TL</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>491,64 TL</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>983,27 TL</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>402.11.002</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>899,17 TL</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>642,26 TL</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.284,52 TL</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>istek üzerine</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>911.24.124</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1.574,17 TL</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1.124,40 TL</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.248,81 TL</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>bir ay içinde</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>100.11.580</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>455,79 TL</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>325,57 TL</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>651,13 TL</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>329.08.180</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>990,83 TL</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>707,74 TL</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.415,48 TL</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>372.33.304</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>3.863,29 TL</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>3.253,54 TL</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.507,08 TL</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>959.00.183</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>4.107,50 TL</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2.933,93 TL</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.867,86 TL</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>372.33.310</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>4.129,96 TL</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>3.473,78 TL</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.947,56 TL</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>901.00.494</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1.390,83 TL</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>993,45 TL</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.986,90 TL</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>433.03.373</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>526,63 TL</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>376,16 TL</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>752,32 TL</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>900.30.272</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>503,29 TL</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>359,49 TL</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>718,99 TL</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>589.67.694</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1.749,17 TL</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1.499,29 TL</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.998,57 TL</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>263.73.624</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>11,08 TL</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>9,43 TL</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>18,87 TL</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>902.99.593</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>383,31 TL</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>283,91 TL</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>567,83 TL</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>9728</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>589.67.275</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>13.589,13 TL</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>12.319,96 TL</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>24.639,93 TL</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>100.16.660</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>199,96 TL</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>142,83 TL</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>285,65 TL</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>900.78.490</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1.982,46 TL</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1.482,11 TL</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.964,23 TL</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>701.34.703</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>5.682,50 TL</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Fiyat talep üzerine bildirilir</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Fiyat talep üzerine bildirilir</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>372.34.702</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>3.929,13 TL</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>3.313,66 TL</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.627,32 TL</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>633.50.702</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>86.215,83 TL</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>72.808,93 TL</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>145.617,86 TL</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>589.67.571</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1.274,17 TL</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1.092,14 TL</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.184,29 TL</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>109.32.580</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>68,29 TL</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>48,78 TL</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>97,56 TL</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>917.63.278</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>12.325,00 TL</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>8.803,57 TL</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>17.607,14 TL</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>istek üzerine</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>911.56.038</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>4.890,83 TL</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>3.493,45 TL</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>6.986,90 TL</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>661.84.900</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1.065,83 TL</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>761,31 TL</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.522,62 TL</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>513.20.602</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2.604,75 TL</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Fiyat talep üzerine bildirilir</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Fiyat talep üzerine bildirilir</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>661.84.201</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1.757,50 TL</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1.255,36 TL</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.510,71 TL</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>950.45.155</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>3.182,50 TL</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2.273,21 TL</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.546,43 TL</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>940.67.120</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>5.524,17 TL</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>3.945,83 TL</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>7.891,67 TL</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>istek üzerine</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>541.29.003</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>20.273,33 TL</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>17.123,81 TL</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>34.247,62 TL</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>425.71.222</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>3.157,50 TL</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2.255,36 TL</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4.510,71 TL</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>istek üzerine</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>570.90.391</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>5.912,50 TL</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>4.223,21 TL</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>8.446,43 TL</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>822.80.252</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>5.549,17 TL</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>3.963,69 TL</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>7.927,38 TL</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>983.14.010</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>373.69.996</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>124,96 TL</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>89,26 TL</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>178,51 TL</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>istek üzerine</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>108.80.048</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>96,63 TL</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>69,02 TL</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>138,04 TL</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>980.48.522</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2.049,17 TL</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1.463,69 TL</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.927,38 TL</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>901.59.230</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>609,13 TL</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>435,09 TL</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>870,18 TL</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>980.48.519</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1.240,83 TL</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>886,31 TL</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.772,62 TL</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>588.21.404</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>12.834,31 TL</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>11.450,83 TL</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>22.901,67 TL</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>901.03.158</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>342,46 TL</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>244,61 TL</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>489,23 TL</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>513.20.605</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2.778,21 TL</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Fiyat talep üzerine bildirilir</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Fiyat talep üzerine bildirilir</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>588.96.043</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>4.415,83 TL</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>1.519,38 TL</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.038,75 TL</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>229.16.418</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>808,29 TL</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>577,35 TL</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.154,70 TL</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>580.68.945</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1.699,17 TL</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>1.213,69 TL</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.427,38 TL</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>562.92.393</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2.715,83 TL</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>1.939,88 TL</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.879,76 TL</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>402.33.700</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2.165,83 TL</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>1.547,02 TL</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.094,05 TL</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>istek üzerine</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>903.93.556</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>882,50 TL</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>630,36 TL</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.260,71 TL</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>istek üzerine</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>842.79.700</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>833.95.708</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>288,29 TL</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>205,92 TL</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>411,85 TL</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>589.39.051</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2.890,83 TL</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Fiyat talep üzerine bildirilir</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Fiyat talep üzerine bildirilir</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>589.09.990</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2.215,83 TL</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>616,25 TL</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.232,50 TL</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>425.71.235</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>4.132,50 TL</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2.951,79 TL</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>5.903,57 TL</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>istek üzerine</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>589.88.150</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>17.741,67 TL</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>15.207,14 TL</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>30.414,29 TL</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>588.96.010</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>3.482,50 TL</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>1.129,79 TL</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.259,58 TL</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>931.10.110</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1.282,50 TL</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>916,07 TL</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.832,14 TL</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>287.37.781</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>159,96 TL</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>114,26 TL</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>228,51 TL</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>541.29.000</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>19.690,00 TL</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>16.588,10 TL</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>33.176,19 TL</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>900.79.251</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2.440,83 TL</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>1.743,45 TL</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>3.486,90 TL</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>513.73.729</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1.715,83 TL</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>1.225,60 TL</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.451,19 TL</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>540.00.351</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>849,17 TL</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>606,55 TL</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.213,10 TL</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>911.24.092</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1.574,17 TL</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>1.124,40 TL</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.248,81 TL</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>552.21.514</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>818,29 TL</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>215,81 TL</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>431,63 TL</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>istek üzerine</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>210.40.615</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>157,46 TL</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>112,47 TL</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>224,94 TL</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>istek üzerine</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>329.17.903</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>184,96 TL</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>132,11 TL</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>264,23 TL</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>567.37.996</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>1.829,17 TL</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>1.306,55 TL</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.613,10 TL</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>542.27.799</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>10.075,00 TL</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>7.196,43 TL</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>14.392,86 TL</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>290.34.796</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2,83 TL</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2,36 TL</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>4,72 TL</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>589.96.945</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>1.924,17 TL</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>1.649,29 TL</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>3.298,57 TL</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>911.02.899</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>453,29 TL</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>377,74 TL</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>755,49 TL</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>900.79.287</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>4.182,50 TL</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2.987,50 TL</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>5.975,00 TL</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>520.73.470</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1.865,83 TL</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>1.332,74 TL</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2.665,48 TL</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>100.00.109</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>67,04 TL</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>47,89 TL</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>95,77 TL</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>372.39.831</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>479,96 TL</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>342,83 TL</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>685,65 TL</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>937.14.906</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>298,29 TL</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>213,07 TL</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>426,13 TL</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>237.27.431</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>46,63 TL</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>33,30 TL</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>66,61 TL</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>1 ila 3 gün içinde</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>983.81.011</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>6.332,50 TL</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>4.523,21 TL</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>9.046,43 TL</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>917.44.099</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>184,96 TL</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>132,11 TL</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>264,23 TL</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>bir ay içinde</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>015.32.136</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>0,73 TL</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0,60 TL</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1,21 TL</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>372.39.811</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>479,96 TL</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>342,83 TL</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>685,65 TL</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>911.24.095</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1.582,50 TL</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>1.130,36 TL</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2.260,71 TL</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>bir ay içinde</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>633.54.105</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>24.890,00 TL</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>21.016,67 TL</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>42.033,33 TL</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>516.00.705</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>173,29 TL</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>123,78 TL</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>247,56 TL</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>901.03.013</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>849,17 TL</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>606,55 TL</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.213,10 TL</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>570.90.508</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>9.079,17 TL</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>6.485,12 TL</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>12.970,24 TL</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>931.10.239</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>43.325,00 TL</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>30.946,43 TL</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>61.892,86 TL</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>istek üzerine</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>015.71.900</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>0,63 TL</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>0,45 TL</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0,91 TL</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>1 ila 3 gün içinde</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>229.85.990</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>39,54 TL</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>28,24 TL</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>56,49 TL</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>588.21.491</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>940,83 TL</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>940,83 TL</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.881,67 TL</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>900.31.845</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>665,79 TL</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>475,57 TL</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>951,13 TL</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>900.99.624</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>1.603,29 TL</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>1.199,38 TL</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2.398,75 TL</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>833.73.150</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>778,29 TL</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>555,92 TL</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1.111,85 TL</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>917.44.098</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>184,96 TL</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>132,11 TL</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>264,23 TL</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>istek üzerine</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>100.81.212</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>509,13 TL</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>363,66 TL</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>727,32 TL</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>909.00.760</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>144,96 TL</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>103,54 TL</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>207,08 TL</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>701.35.773</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>5.690,83 TL</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Fiyat talep üzerine bildirilir</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Fiyat talep üzerine bildirilir</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>372.27.507</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>1.249,17 TL</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>892,26 TL</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.784,52 TL</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>372.87.700</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>114,96 TL</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>82,12 TL</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>164,23 TL</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>981.02.061</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2.240,83 TL</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>1.600,60 TL</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>3.201,19 TL</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>1 ila 3 gün içinde</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>513.16.724</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>1.962,33 TL</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>1.761,25 TL</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>3.522,50 TL</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>806.15.913</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>3.407,50 TL</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>1.200,63 TL</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2.401,25 TL</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>372.28.720</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>874,92 TL</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>736,85 TL</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.473,69 TL</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>588.21.440</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>9.075,00 TL</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>7.778,57 TL</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>15.557,14 TL</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>425.71.335</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>911.39.528</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>1.724,17 TL</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>1.231,55 TL</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2.463,10 TL</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>900.78.491</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2.165,79 TL</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>1.619,02 TL</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>3.238,04 TL</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>900.99.685</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>1.853,29 TL</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>1.383,90 TL</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2.767,80 TL</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>902.53.236</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>344,13 TL</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>245,80 TL</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>491,61 TL</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>981.22.539</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>3.132,50 TL</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2.237,50 TL</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>4.475,00 TL</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>161.05.250</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>242,46 TL</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>9,56 TL</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>19,12 TL</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>981.22.423</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>5.299,17 TL</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>3.785,12 TL</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>7.570,24 TL</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>520.73.430</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>1.715,83 TL</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>1.225,60 TL</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2.451,19 TL</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>426.05.207</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>1.026,50 TL</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>866,55 TL</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>1.733,10 TL</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>262.87.703</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>40,38 TL</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>28,84 TL</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>57,68 TL</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>513.16.625</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2.093,29 TL</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>1.789,19 TL</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>3.578,37 TL</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>246.75.630</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>1.924,17 TL</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>1.374,40 TL</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2.748,81 TL</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>138.68.814</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>urun hafele.com.tr de bulunmuyor</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>513.71.553</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>149,96 TL</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>107,11 TL</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>214,23 TL</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>981.82.021</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>1.599,17 TL</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>1.142,26 TL</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2.284,52 TL</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>589.67.611</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>915,83 TL</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>785,00 TL</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>1.570,00 TL</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>900.99.910</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2.807,50 TL</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2.005,36 TL</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>4.010,71 TL</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>562.89.084</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>29.408,33 TL</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>21.005,95 TL</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>42.011,90 TL</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>589.67.722</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>1.274,17 TL</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>1.092,14 TL</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2.184,29 TL</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>580.69.145</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2.215,83 TL</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>1.582,74 TL</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>3.165,48 TL</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>927.54.141</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>155,79 TL</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>111,28 TL</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>222,56 TL</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>589.88.180</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>12.991,67 TL</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>11.135,71 TL</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>22.271,43 TL</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>900.78.419</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2.239,96 TL</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>1.671,99 TL</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>3.343,99 TL</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>902.99.605</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>497,46 TL</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>414,55 TL</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>829,10 TL</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>233.30.990</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>31,21 TL</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>22,29 TL</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>44,58 TL</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>bir ay içinde</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>950.48.103</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>46,21 TL</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>33,01 TL</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>66,01 TL</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>108.80.083</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>138,29 TL</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>98,78 TL</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>197,56 TL</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>372.91.022</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>1.715,83 TL</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>1.225,60 TL</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2.451,19 TL</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>373.69.745</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>1.164,50 TL</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>979,11 TL</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>1.958,21 TL</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>set urun</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>833.72.854</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>40,38 TL</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>28,84 TL</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>57,68 TL</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>833.89.113</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>502,46 TL</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>358,90 TL</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>717,80 TL</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>911.68.576</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>7.624,17 TL</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>5.445,83 TL</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>10.891,67 TL</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>stokta mevcut</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>432.04.742</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>3.749,17 TL</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>2.677,98 TL</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>5.355,95 TL</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>10 ila 20 gün içinde</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
